--- a/Dados/dados_treino.xlsx
+++ b/Dados/dados_treino.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b805d6f1135a620/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b805d6f1135a620/Documentos/GitHub/Cdados/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="802" documentId="8_{E01B2733-73D4-4861-8ED1-A65F2AF40281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9410D7B-E44A-4C1E-ACC4-47CC19C8A0EF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2349,10 +2349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2643,7 +2639,7 @@
   <dimension ref="A1:B751"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dados/dados_treino.xlsx
+++ b/Dados/dados_treino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b805d6f1135a620/Documentos/GitHub/Cdados/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="802" documentId="8_{E01B2733-73D4-4861-8ED1-A65F2AF40281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9410D7B-E44A-4C1E-ACC4-47CC19C8A0EF}"/>
+  <xr:revisionPtr revIDLastSave="804" documentId="8_{E01B2733-73D4-4861-8ED1-A65F2AF40281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30CCC07F-6DEB-43D6-A86C-B56EF59C9DA7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2638,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
